--- a/sdf.xlsx
+++ b/sdf.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="鸡岛一哥" sheetId="2" r:id="rId2"/>
     <sheet name="beyouoto" sheetId="3" r:id="rId3"/>
     <sheet name="鸡岛实盘关注" sheetId="4" r:id="rId4"/>
+    <sheet name="少输善输" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>平均每笔盈利</t>
   </si>
@@ -258,6 +259,59 @@
   <si>
     <t>Nicke</t>
   </si>
+  <si>
+    <t>必胜法并不是一定出现在每根k线之中的.如果是这样那就意味着我们有可能对每一根k线都进行准确预测.这是不可能的.我们依靠概率.运用一些复合量化手段去赢钱.大家都知道概率发生作用是一个过程及周期.而不是具体某一点.你不能说它会在哪一个点发生作或者发生转折.就算它可确定今天在某一点发生作用.但明天它又可能不会发生在这个点上.而发生在另外一个点.因此某一点或者某根k线是无法预测的.但我们还是可以依剧概率原理.及复合手段在某个安全位置稳稳当当达到盈利的目地.因此必胜法蠃钱是个过程和周期.这周期可以是分时,天或其它单位.你下单时感觉不出它的存在.但玩到一定数量后.它的作用就显现出来........我前面说过概率无法战胜.但可以利用.有些概率现象真的有些数学家都未必了解......也许是大家所站角度不同罢了.</t>
+  </si>
+  <si>
+    <t>必胜法赢钱是个过程.是在一定的时间周期内才得以完成.这里时间长短不一是一个变量....而非一恒定值.有时运气好时在日内可以完成数个周期.运气不好时跨度稍长一些.</t>
+  </si>
+  <si>
+    <t>由于二赢思维颠覆传统的下单模式和资金管理的思路.利用复合手段在一定周期内达到羸利的目标.彻底摆脱方向的困饶.做到真正意义上随机对抗随机.用振幅去抵抗振幅.只要你掌握了二赢思维的基本原理及运用.就可以将任何一种下单系统改造成为长胜之法.</t>
+  </si>
+  <si>
+    <t>系统必需以概率为依剧..........机率占优</t>
+  </si>
+  <si>
+    <t>资金管理必须搞定振幅.........从而达赔率占优</t>
+  </si>
+  <si>
+    <t>机率与赔率是一切的出发点及归宿</t>
+  </si>
+  <si>
+    <t>周期与振幅密不可分............所谓短周期即相对较小的振幅</t>
+  </si>
+  <si>
+    <t>例如追寻趋势的系统即为长周期打法............任何人都无法抵御这种振幅........</t>
+  </si>
+  <si>
+    <t>说白了你能搞定振幅就是必胜</t>
+  </si>
+  <si>
+    <t>若被振幅击败了就是暴仓</t>
+  </si>
+  <si>
+    <t>探求振幅起码标准差你要懂吧........否则如何计算又成竹在胸呢</t>
+  </si>
+  <si>
+    <r>
+      <t>做好资金管理搞定振幅，基本可以无敌天下了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>[/QUOTE]</t>
+    </r>
+  </si>
+  <si>
+    <t>一理通万法通.........拉斯维加都一样</t>
+  </si>
+  <si>
+    <t>从投法及资金管理两方面着手.....力争胜负平滑分布尽可能均匀</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +407,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -464,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -564,6 +631,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,6 +644,51 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="http://bbs.hexun.com/img/oldEmts/002_t.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4048125"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2446,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -2577,4 +2694,94 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="122.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="90.75" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/sdf.xlsx
+++ b/sdf.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="鸡岛一哥" sheetId="2" r:id="rId2"/>
     <sheet name="beyouoto" sheetId="3" r:id="rId3"/>
-    <sheet name="鸡岛实盘关注" sheetId="4" r:id="rId4"/>
-    <sheet name="少输善输" sheetId="5" r:id="rId5"/>
+    <sheet name="少输善输" sheetId="5" r:id="rId4"/>
+    <sheet name="鸡岛实盘关注" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>平均每笔盈利</t>
   </si>
@@ -312,6 +312,20 @@
   <si>
     <t>从投法及资金管理两方面着手.....力争胜负平滑分布尽可能均匀</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我是多少ATR，看来具体用哪个不是重点</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +434,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1827,30 +1849,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15">
+      <c r="N1" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15">
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="34" t="s">
         <v>41</v>
       </c>
@@ -1866,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U35" sqref="F35:U64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2561,6 +2586,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="122.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="90.75" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2694,94 +2809,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="122.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="90.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/sdf.xlsx
+++ b/sdf.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="鸡岛一哥" sheetId="2" r:id="rId2"/>
-    <sheet name="beyouoto" sheetId="3" r:id="rId3"/>
-    <sheet name="少输善输" sheetId="5" r:id="rId4"/>
+    <sheet name="机岛一哥" sheetId="2" r:id="rId2"/>
+    <sheet name="生活在别处" sheetId="6" r:id="rId3"/>
+    <sheet name="beyouoto" sheetId="3" r:id="rId4"/>
     <sheet name="鸡岛实盘关注" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>平均每笔盈利</t>
   </si>
@@ -218,9 +218,6 @@
     <t>之前说过 期货没有必胜法，但是规避掉必亏法后（就是简单的原则问题少犯），路就渐渐少了杂草开始明朗，自身控制力也开始上升。否则每天都在除草，路若隐若现看不清。</t>
   </si>
   <si>
-    <t>无所不能</t>
-  </si>
-  <si>
     <t>拳镇乾坤</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>何时清醒</t>
   </si>
   <si>
-    <t>bibibobo</t>
-  </si>
-  <si>
     <t>黑狗杂毛</t>
   </si>
   <si>
@@ -245,72 +239,7 @@
     <t>心量</t>
   </si>
   <si>
-    <t>往期</t>
-  </si>
-  <si>
-    <t>草木</t>
-  </si>
-  <si>
-    <t>生活在别处</t>
-  </si>
-  <si>
     <t>拈花傻笑</t>
-  </si>
-  <si>
-    <t>Nicke</t>
-  </si>
-  <si>
-    <t>必胜法并不是一定出现在每根k线之中的.如果是这样那就意味着我们有可能对每一根k线都进行准确预测.这是不可能的.我们依靠概率.运用一些复合量化手段去赢钱.大家都知道概率发生作用是一个过程及周期.而不是具体某一点.你不能说它会在哪一个点发生作或者发生转折.就算它可确定今天在某一点发生作用.但明天它又可能不会发生在这个点上.而发生在另外一个点.因此某一点或者某根k线是无法预测的.但我们还是可以依剧概率原理.及复合手段在某个安全位置稳稳当当达到盈利的目地.因此必胜法蠃钱是个过程和周期.这周期可以是分时,天或其它单位.你下单时感觉不出它的存在.但玩到一定数量后.它的作用就显现出来........我前面说过概率无法战胜.但可以利用.有些概率现象真的有些数学家都未必了解......也许是大家所站角度不同罢了.</t>
-  </si>
-  <si>
-    <t>必胜法赢钱是个过程.是在一定的时间周期内才得以完成.这里时间长短不一是一个变量....而非一恒定值.有时运气好时在日内可以完成数个周期.运气不好时跨度稍长一些.</t>
-  </si>
-  <si>
-    <t>由于二赢思维颠覆传统的下单模式和资金管理的思路.利用复合手段在一定周期内达到羸利的目标.彻底摆脱方向的困饶.做到真正意义上随机对抗随机.用振幅去抵抗振幅.只要你掌握了二赢思维的基本原理及运用.就可以将任何一种下单系统改造成为长胜之法.</t>
-  </si>
-  <si>
-    <t>系统必需以概率为依剧..........机率占优</t>
-  </si>
-  <si>
-    <t>资金管理必须搞定振幅.........从而达赔率占优</t>
-  </si>
-  <si>
-    <t>机率与赔率是一切的出发点及归宿</t>
-  </si>
-  <si>
-    <t>周期与振幅密不可分............所谓短周期即相对较小的振幅</t>
-  </si>
-  <si>
-    <t>例如追寻趋势的系统即为长周期打法............任何人都无法抵御这种振幅........</t>
-  </si>
-  <si>
-    <t>说白了你能搞定振幅就是必胜</t>
-  </si>
-  <si>
-    <t>若被振幅击败了就是暴仓</t>
-  </si>
-  <si>
-    <t>探求振幅起码标准差你要懂吧........否则如何计算又成竹在胸呢</t>
-  </si>
-  <si>
-    <r>
-      <t>做好资金管理搞定振幅，基本可以无敌天下了 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>[/QUOTE]</t>
-    </r>
-  </si>
-  <si>
-    <t>一理通万法通.........拉斯维加都一样</t>
-  </si>
-  <si>
-    <t>从投法及资金管理两方面着手.....力争胜负平滑分布尽可能均匀</t>
   </si>
   <si>
     <r>
@@ -323,6 +252,87 @@
         <scheme val="minor"/>
       </rPr>
       <t>我是多少ATR，看来具体用哪个不是重点</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活在别处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛怎么样不做评论，发个有营养的帖子，总归没有不妥吧。一直不开口，偶然兴起就说两句技术，以前在别的论坛也说过，懂的人如遇知音，不懂的云里雾里。废话不多说，要谈的是入场点，一共四句话：</t>
+  </si>
+  <si>
+    <t>1、沉寂之后的爆发</t>
+  </si>
+  <si>
+    <t>2、发力之前的蓄势</t>
+  </si>
+  <si>
+    <t>3、进攻失败后的溃退</t>
+  </si>
+  <si>
+    <t>4、进攻失败后的卷土重来</t>
+  </si>
+  <si>
+    <t>止盈没啥技术可言，没必要研究，差不多了就落袋为安，碰到日线级别的行情，那就继续持有赌一把</t>
+  </si>
+  <si>
+    <t>止损是建立在入场形态之上的，止盈是根据统计波动平均幅度来的。比如说涨了2%就开始注意止盈，或者连续走出三根阳线就注意止盈</t>
+  </si>
+  <si>
+    <t>bibibobo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicke</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于止盈和机岛一哥说的意思一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>往期选手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无所不能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人主日内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>beyouoto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主隔夜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>beyouoto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盈利费用比更高，比生活在别处高一倍</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -415,33 +425,31 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -553,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -648,16 +656,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -666,51 +671,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="http://bbs.hexun.com/img/oldEmts/002_t.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4048125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1000,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1852,7 +1812,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection sqref="A1:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1861,8 +1821,8 @@
       <c r="A1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="43" t="s">
-        <v>82</v>
+      <c r="N1" s="42" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
@@ -1889,10 +1849,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U35" sqref="F35:U64"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2584,128 +2616,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="122.25" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="90.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>68</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="44" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="46" t="s">
-        <v>69</v>
+      <c r="A3" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="40" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2715,94 +2660,84 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="40"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="41" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="41" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="40" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="41" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="40"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="41"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="41"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="44" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="42" t="s">
-        <v>67</v>
+      <c r="A23" s="44" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
